--- a/evaluation/results/hybrid/pca/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/one_svm/split_5/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.6225626740947076</v>
       </c>
       <c r="D2">
-        <v>0.09550561797752809</v>
+        <v>0.8370786516853933</v>
       </c>
       <c r="E2">
-        <v>0.160377358490566</v>
+        <v>0.7140575079872205</v>
       </c>
       <c r="F2">
-        <v>0.113941018766756</v>
+        <v>0.7831114225648214</v>
       </c>
       <c r="G2">
-        <v>0.09857270294380018</v>
+        <v>0.8261302246232585</v>
       </c>
       <c r="H2">
-        <v>0.4999999999999999</v>
+        <v>0.7034745893475851</v>
       </c>
       <c r="I2">
-        <v>51</v>
+        <v>447</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>271</v>
       </c>
       <c r="K2">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="L2">
-        <v>483</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.7514285714285714</v>
       </c>
       <c r="C2">
-        <v>0.9044943820224719</v>
+        <v>0.4925093632958801</v>
       </c>
       <c r="D2">
-        <v>0.644</v>
+        <v>0.5950226244343891</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.6225626740947076</v>
       </c>
       <c r="C3">
-        <v>0.09550561797752809</v>
+        <v>0.8370786516853933</v>
       </c>
       <c r="D3">
-        <v>0.160377358490566</v>
+        <v>0.7140575079872205</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.6869956227616395</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="D5">
-        <v>0.402188679245283</v>
+        <v>0.6545400662108047</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.6869956227616396</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6647940074906367</v>
       </c>
       <c r="D6">
-        <v>0.402188679245283</v>
+        <v>0.6545400662108047</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>483</v>
+        <v>263</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>483</v>
+        <v>87</v>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
